--- a/biology/Médecine/Trouble_dissociatif_de_l'identité/Trouble_dissociatif_de_l'identité.xlsx
+++ b/biology/Médecine/Trouble_dissociatif_de_l'identité/Trouble_dissociatif_de_l'identité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trouble_dissociatif_de_l%27identit%C3%A9</t>
+          <t>Trouble_dissociatif_de_l'identité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trouble dissociatif de l'identité (TDI, anciennement appelé le trouble de la personnalité multiple selon la CIM-10) est un trouble mental défini en 1994 dans le DSM par un ensemble de critères diagnostiques comme un type particulier de trouble dissociatif. Le diagnostic requiert la présence d'états de personnalité distincts avec altération significative de la mémoire, la perception, des affects, de la cognition et possiblement du fonctionnement sensorimoteur. De plus, les symptômes ne peuvent être l'effet temporaire d'un abus de substances ou d'une condition médicale généralisée[1]. Le TDI est moins répandu que les autres troubles dissociatifs, qui surviennent dans approximativement 1 à 3 % des cas, et est souvent comorbide avec d'autres troubles[2].
-La validité du TDI en tant que diagnostic médical a très souvent été remise en question[3],[4]. Le TDI est plus fréquemment et systématiquement diagnostiqué en Amérique du Nord que dans le reste du monde[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trouble dissociatif de l'identité (TDI, anciennement appelé le trouble de la personnalité multiple selon la CIM-10) est un trouble mental défini en 1994 dans le DSM par un ensemble de critères diagnostiques comme un type particulier de trouble dissociatif. Le diagnostic requiert la présence d'états de personnalité distincts avec altération significative de la mémoire, la perception, des affects, de la cognition et possiblement du fonctionnement sensorimoteur. De plus, les symptômes ne peuvent être l'effet temporaire d'un abus de substances ou d'une condition médicale généralisée. Le TDI est moins répandu que les autres troubles dissociatifs, qui surviennent dans approximativement 1 à 3 % des cas, et est souvent comorbide avec d'autres troubles.
+La validité du TDI en tant que diagnostic médical a très souvent été remise en question,. Le TDI est plus fréquemment et systématiquement diagnostiqué en Amérique du Nord que dans le reste du monde,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trouble_dissociatif_de_l%27identit%C3%A9</t>
+          <t>Trouble_dissociatif_de_l'identité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant le XIXe siècle, des individus qui montraient des symptômes similaires pensaient être possédés par des esprits[2]. Le premier cas de TDI aurait été décrit par Paracelse. Au XIXe siècle, le « dédoublement » ou double conscience, le précurseur historique du TDI, était fréquemment décrit comme un état de somnambulisme, suggérant que le somnambule passait d'un comportement normal à un « état de somnambulisme »[7]. Un très fort intérêt pour le spiritualisme, la parapsychologie et l'hypnose s'ensuit durant le XIXe siècle et au début du XXe[6]. Le XIXe siècle a vu naître de nombreuses personnalités[pas clair] estimées à 100 par Rieber[8]. Dans certains cas, l'épilepsie était considérée comme un facteur de risque[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant le XIXe siècle, des individus qui montraient des symptômes similaires pensaient être possédés par des esprits. Le premier cas de TDI aurait été décrit par Paracelse. Au XIXe siècle, le « dédoublement » ou double conscience, le précurseur historique du TDI, était fréquemment décrit comme un état de somnambulisme, suggérant que le somnambule passait d'un comportement normal à un « état de somnambulisme ». Un très fort intérêt pour le spiritualisme, la parapsychologie et l'hypnose s'ensuit durant le XIXe siècle et au début du XXe. Le XIXe siècle a vu naître de nombreuses personnalités[pas clair] estimées à 100 par Rieber. Dans certains cas, l'épilepsie était considérée comme un facteur de risque.
 Depuis le cas spectaculaire de Christine Beauchamp présenté par Morton Prince en 1906, la question des personnalités multiples avait sombré dans un relatif oubli. C'est surtout après la publication de l'ouvrage Sybil, en 1973, qui a été un immense succès de diffusion, que des cas ont été à nouveau décrits. Parallèlement, la figure de la personnalité multiple commençait à apparaître dans des films de fiction, dans les talk-shows ; un thème exploité dans le roman de Mary Higgins Clark Nous n'irons plus au bois (1992) et dans la série américaine United States of Tara (2008). Ce regain d'intérêt a conduit les concepteurs du Manuel diagnostic et statistique des troubles mentaux, classification américaine des maladies mentales de référence, à introduire ce trouble dans la troisième version de leur manuel : le DSM-III.
 Le trouble de la personnalité multiple est décrit pour la première fois en Amérique du Nord dans les années 1980, notamment à la suite de l'affaire Billy Milligan. De tels troubles, quoique rares, avaient été décrits depuis des temps anciens, et puis plus particulièrement à la charnière entre le XIXe siècle et le XXe siècle en France à partir des travaux notamment de Pierre Janet. Ces cas restaient rares, mais dans les années 1980 on a assisté à une véritable explosion de ces troubles, si bien que certains ont parlé d'« épidémie ». Cela s'est accompagné de nombreuses dérives, alors qu'une large partie de la communauté scientifique restait sceptique. Il a d'ailleurs été renommé dans le DSM-IV en trouble dissociatif de l'identité.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trouble_dissociatif_de_l%27identit%C3%A9</t>
+          <t>Trouble_dissociatif_de_l'identité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,12 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Manuel diagnostique et statistique des troubles mentaux (DSM), le TDI implique « la présence de deux ou plusieurs identités ou « états de personnalité » distincts qui prennent tour à tour le contrôle du comportement du sujet, s'accompagnant d'une incapacité à évoquer des souvenirs personnels[9]. » Chez chaque individu, les symptômes varient et le comportement peut souvent être inadapté à une situation vécue[10],[11]. Les patients peuvent faire l'expérience de symptômes pseudo-comitiaux qui ressembleraient à de l'épilepsie, schizophrénie (voir aussi sa confusion avec le sens commun), aux[réf. nécessaire] troubles anxieux, troubles de l'humeur, au[réf. nécessaire] trouble de stress post-traumatique, troubles de la personnalité[réf. nécessaire] et aux troubles des conduites alimentaires[10].
-Les symptômes de l'amnésie dissociative, fugue dissociative et trouble de la dépersonnalisation sont liés aux diagnostics du TDI et ne sont jamais diagnostiqués séparément. Les individus peuvent être effrayés des symptômes du TDI (pensées intrusives ou émotions) et de leurs conséquences[12],[13].
-Comorbidités
-Généralement, les antécédents psychiatriques des individus comprennent des diagnostics antérieurs de troubles divers ainsi que de nombreux échecs de traitement[1]. La raison de consultation la plus fréquente du TDI est la dépression, les maux de tête représentant un symptôme neurologique commun. Les comorbidités peuvent inclure des troubles mentaux et du comportement lié à l’utilisation de substances psychoactives, des troubles des conduites alimentaires, des troubles anxieux, un trouble bipolaire et des troubles de la personnalité[14],[15]. Les manifestations de dissociation chez les personnes atteintes de schizophrénie diffèrent de celles rencontrées chez les personnes atteintes de TDI, car elles ne sont pas enracinées dans un traumatisme. Bien que cette distinction puisse être testée de manière efficace, les deux conditions partagent un taux élevé d’hallucinations auditives dissociatives. En comparant les individus ne présentant pas de diagnostic de TDI, on a constaté des comorbidités avec d’autres troubles comme les troubles somatiques, les troubles de dépression majeure, de même que des antécédents de tentatives de suicide. En dépit de la forte comorbidité du TDI et de la corrélation entre son développement et un traumatisme, des données probantes suggèrent que le TDI requiert un diagnostic distinct de celui d’autres affections comme le syndrome de stress post-traumatique[16].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Manuel diagnostique et statistique des troubles mentaux (DSM), le TDI implique « la présence de deux ou plusieurs identités ou « états de personnalité » distincts qui prennent tour à tour le contrôle du comportement du sujet, s'accompagnant d'une incapacité à évoquer des souvenirs personnels. » Chez chaque individu, les symptômes varient et le comportement peut souvent être inadapté à une situation vécue,. Les patients peuvent faire l'expérience de symptômes pseudo-comitiaux qui ressembleraient à de l'épilepsie, schizophrénie (voir aussi sa confusion avec le sens commun), aux[réf. nécessaire] troubles anxieux, troubles de l'humeur, au[réf. nécessaire] trouble de stress post-traumatique, troubles de la personnalité[réf. nécessaire] et aux troubles des conduites alimentaires.
+Les symptômes de l'amnésie dissociative, fugue dissociative et trouble de la dépersonnalisation sont liés aux diagnostics du TDI et ne sont jamais diagnostiqués séparément. Les individus peuvent être effrayés des symptômes du TDI (pensées intrusives ou émotions) et de leurs conséquences,.
 </t>
         </is>
       </c>
@@ -561,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Trouble_dissociatif_de_l%27identit%C3%A9</t>
+          <t>Trouble_dissociatif_de_l'identité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Causes</t>
+          <t>Signes et symptômes</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon certains auteurs, ce trouble est lié à l'expérience d'événements traumatiques avant l'âge de 7 à 9 ans[17], à une nutrition insuffisante durant l'enfance, ou à une capacité innée de dissocier des souvenirs ou des expériences vécues[10]. Un haut pourcentage de patients rapportent avoir été maltraités durant leur enfance[3],[18].
-Les individus diagnostiqués de TDI rapportent avoir souvent vécu des agressions physiques et sexuelles, spécialement durant la petite à la deuxième enfance[19].
+          <t>Comorbidités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Généralement, les antécédents psychiatriques des individus comprennent des diagnostics antérieurs de troubles divers ainsi que de nombreux échecs de traitement. La raison de consultation la plus fréquente du TDI est la dépression, les maux de tête représentant un symptôme neurologique commun. Les comorbidités peuvent inclure des troubles mentaux et du comportement lié à l’utilisation de substances psychoactives, des troubles des conduites alimentaires, des troubles anxieux, un trouble bipolaire et des troubles de la personnalité,. Les manifestations de dissociation chez les personnes atteintes de schizophrénie diffèrent de celles rencontrées chez les personnes atteintes de TDI, car elles ne sont pas enracinées dans un traumatisme. Bien que cette distinction puisse être testée de manière efficace, les deux conditions partagent un taux élevé d’hallucinations auditives dissociatives. En comparant les individus ne présentant pas de diagnostic de TDI, on a constaté des comorbidités avec d’autres troubles comme les troubles somatiques, les troubles de dépression majeure, de même que des antécédents de tentatives de suicide. En dépit de la forte comorbidité du TDI et de la corrélation entre son développement et un traumatisme, des données probantes suggèrent que le TDI requiert un diagnostic distinct de celui d’autres affections comme le syndrome de stress post-traumatique.
 </t>
         </is>
       </c>
@@ -593,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trouble_dissociatif_de_l%27identit%C3%A9</t>
+          <t>Trouble_dissociatif_de_l'identité</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,16 +627,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Controverse</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le TDI figure parmi les troubles dissociatifs les plus discutés et parmi les troubles les plus controversés du DSM-IV-TR[20].
-La controverse principale oppose l'idée selon laquelle le TDI est causé par un stress traumatique forçant l’esprit à se diviser en plusieurs identités, chacune avec un ensemble de souvenirs séparé[21],[22], et la conviction que certains symptômes sont engendrés par des pratiques psychothérapeutiques, les patients jouant alors un rôle qu'ils jugent correspondre à celui d'une personne atteinte de TDI [23],[24]. Il existe entre ces deux positions un désaccord intense. Les recherches, de plus, ont été menées selon une méthodologie de faible qualité [21]. Le psychiatre Joel Paris note que l'idée selon laquelle une personnalité serait capable de se diviser en plusieurs entités autonomes constitue une affirmation non prouvée qui contredit la recherche en psychologie cognitive[25].
-Certains auteurs pensent que le TDI est causé par les soins psychiatriques, c’est-à-dire que les thérapeutes eux-mêmes induisent des symptômes de TDI, via l'hypnose notamment. Cette croyance implique également que les personnes atteintes de TDI sont plus susceptibles d'être manipulées par l'hypnose et plus vulnérables à la suggestion que d'autres. Le modèle iatrogene indique aussi parfois que le traitement du TDI est nocif. Mais selon Brand, Loewenstein et Spiegel, « les allégations selon lesquelles le traitement du TDI est nocif sont basées sur des cas anecdotiques, des articles d'opinion, des rapports de dommages, non étayés par la littérature scientifique, de la phénoménologie du TDI. » 
-Les psychiatres August Piper et Harold Merskey ont contesté l'hypothèse du traumatisme, arguant que la corrélation n'implique pas le lien de causalité. Ils affirment que TDI ne peut pas être diagnostiqué avec précision en raison de critères de diagnostic vagues et malléables du DSM et de la présence de concepts non définis, tels que ceux d'« état de personnalité » et d'« identités », et remettent en question les preuves de maltraitance infantile au-delà des témoignages individuels[26].
-Le psychiatre Colin Ross est quant à lui en désaccord avec la conclusion de Piper et Merskey selon laquelle le TDI ne pourrait pas être diagnostiqué avec précision, indiquant une cohérence interne entre différents entretiens structurés sur les troubles dissociatifs (s'appuyant notamment sur la DES, la SCID-D ainsi que la DDIS). Selon lui, Piper et Merskey fixent la norme de preuve plus haut que pour d'autres diagnostics. Il affirme également que Piper et Merskey ont sélectionné certaines données et n'ont pas incorporé toute la littérature scientifique disponible, comme des preuves indépendantes corroborant un traumatisme[27].
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon certains auteurs, ce trouble est lié à l'expérience d'événements traumatiques avant l'âge de 7 à 9 ans, à une nutrition insuffisante durant l'enfance, ou à une capacité innée de dissocier des souvenirs ou des expériences vécues. Un haut pourcentage de patients rapportent avoir été maltraités durant leur enfance,.
+Les individus diagnostiqués de TDI rapportent avoir souvent vécu des agressions physiques et sexuelles, spécialement durant la petite à la deuxième enfance.
 </t>
         </is>
       </c>
@@ -628,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Trouble_dissociatif_de_l%27identit%C3%A9</t>
+          <t>Trouble_dissociatif_de_l'identité</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,30 +661,174 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Controverse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le TDI figure parmi les troubles dissociatifs les plus discutés et parmi les troubles les plus controversés du DSM-IV-TR.
+La controverse principale oppose l'idée selon laquelle le TDI est causé par un stress traumatique forçant l’esprit à se diviser en plusieurs identités, chacune avec un ensemble de souvenirs séparé et la conviction que certains symptômes sont engendrés par des pratiques psychothérapeutiques, les patients jouant alors un rôle qu'ils jugent correspondre à celui d'une personne atteinte de TDI ,. Il existe entre ces deux positions un désaccord intense. Les recherches, de plus, ont été menées selon une méthodologie de faible qualité . Le psychiatre Joel Paris note que l'idée selon laquelle une personnalité serait capable de se diviser en plusieurs entités autonomes constitue une affirmation non prouvée qui contredit la recherche en psychologie cognitive.
+Certains auteurs pensent que le TDI est causé par les soins psychiatriques, c’est-à-dire que les thérapeutes eux-mêmes induisent des symptômes de TDI, via l'hypnose notamment. Cette croyance implique également que les personnes atteintes de TDI sont plus susceptibles d'être manipulées par l'hypnose et plus vulnérables à la suggestion que d'autres. Le modèle iatrogene indique aussi parfois que le traitement du TDI est nocif. Mais selon Brand, Loewenstein et Spiegel, « les allégations selon lesquelles le traitement du TDI est nocif sont basées sur des cas anecdotiques, des articles d'opinion, des rapports de dommages, non étayés par la littérature scientifique, de la phénoménologie du TDI. » 
+Les psychiatres August Piper et Harold Merskey ont contesté l'hypothèse du traumatisme, arguant que la corrélation n'implique pas le lien de causalité. Ils affirment que TDI ne peut pas être diagnostiqué avec précision en raison de critères de diagnostic vagues et malléables du DSM et de la présence de concepts non définis, tels que ceux d'« état de personnalité » et d'« identités », et remettent en question les preuves de maltraitance infantile au-delà des témoignages individuels.
+Le psychiatre Colin Ross est quant à lui en désaccord avec la conclusion de Piper et Merskey selon laquelle le TDI ne pourrait pas être diagnostiqué avec précision, indiquant une cohérence interne entre différents entretiens structurés sur les troubles dissociatifs (s'appuyant notamment sur la DES, la SCID-D ainsi que la DDIS). Selon lui, Piper et Merskey fixent la norme de preuve plus haut que pour d'autres diagnostics. Il affirme également que Piper et Merskey ont sélectionné certaines données et n'ont pas incorporé toute la littérature scientifique disponible, comme des preuves indépendantes corroborant un traumatisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Trouble_dissociatif_de_l'identité</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_dissociatif_de_l%27identit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Séries
-2009 – 2011 : Lie to me (saison 2, épisode 1) de Samuel Baum
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2009 – 2011 : Lie to me (saison 2, épisode 1) de Samuel Baum
 2009– 2011 : United States of Tara  de Diablo Cody
-2015 – 2019 : Mr. Robot de Sam Esmail[28]
-2022 : Moon Knight de Jeremy Slater[29]
-2023 : The Crowded Room de Akiva Goldsman
-Films
-Certaines franchises de films traitent de ce sujet. Certains de ces films sont exagérés pour affirmer le genre du film (que ce soit un film d'horreur ou un thriller).
+2015 – 2019 : Mr. Robot de Sam Esmail
+2022 : Moon Knight de Jeremy Slater
+2023 : The Crowded Room de Akiva Goldsman</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Trouble_dissociatif_de_l'identité</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_dissociatif_de_l%27identit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Certaines franchises de films traitent de ce sujet. Certains de ces films sont exagérés pour affirmer le genre du film (que ce soit un film d'horreur ou un thriller).
 1996 : Peur primale de Gregory Hoblit
 1999 : Fight Club de David Fincher
 2000 : Fous d'Irène de Bobby et Peter Farrelly
 2003 : Identity  de James Mangold
 2003 : Dédales de René Manzor et Mathieu Schiffman
 2011 : Le Complexe du castor de Jodie Foster
-2017 : Split de M. Night Shyamalan[30]
-Romans
-La Proie des âmes. Un conte spirituel (2005) de Matt Ruff, Éditions du Seuil
-Jeux vidéos
-2020 : Omori
+2017 : Split de M. Night Shyamalan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Trouble_dissociatif_de_l'identité</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_dissociatif_de_l%27identit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Proie des âmes. Un conte spirituel (2005) de Matt Ruff, Éditions du Seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Trouble_dissociatif_de_l'identité</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_dissociatif_de_l%27identit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jeux vidéos</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2020 : Omori
 2020: The Dark Pictures Anthology: Little Hope</t>
         </is>
       </c>
